--- a/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
+++ b/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/248d071b55cd37e9/Documents/GitHub/NitaraAndroidSPApplication-/AndroidAutomation_ServiceProvider/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_63D50D6EEF924D9E8E96BEE24599D29C62E8EC90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3515D3B5-35D1-4478-9886-70C75FC229DC}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -25,21 +31,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
   <si>
     <t>testcase</t>
   </si>
@@ -699,12 +696,75 @@
   </si>
   <si>
     <t>PIN entered already exists. Please create a new PIN.</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullTagNumberAccceptsSpecialCharacters</t>
+  </si>
+  <si>
+    <t>123#@4re</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullSameEarTag</t>
+  </si>
+  <si>
+    <t>MilkingCt1</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullCoopTagNumberAcceptsNonNumericValue</t>
+  </si>
+  <si>
+    <t>csnscscscscs</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullPashuAadharLesserThan12Digits</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullPashuAadharMoreThan12Digits</t>
+  </si>
+  <si>
+    <t>AUGUST</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullCattleTagMandatory</t>
+  </si>
+  <si>
+    <t>SEPTEMBER</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullYearOfBirthMandatory</t>
+  </si>
+  <si>
+    <t>OCTOBER</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullMinimumWeight</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullMaximumWeight</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullUnder6Months</t>
+  </si>
+  <si>
+    <t>MARCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,37 +1145,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="19" width="16.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="19" width="16.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -1702,6 +1762,215 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15">
+        <v>15421542</v>
+      </c>
+      <c r="D15">
+        <v>2021</v>
+      </c>
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16">
+        <v>15421542154215</v>
+      </c>
+      <c r="D16">
+        <v>2019</v>
+      </c>
+      <c r="E16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17">
+        <v>2018</v>
+      </c>
+      <c r="E17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="E21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,17 +1979,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1779,22 +2048,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +2077,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>203</v>
       </c>
@@ -1820,7 +2089,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>204</v>
       </c>
@@ -1834,7 +2103,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>205</v>
       </c>
@@ -1846,7 +2115,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>206</v>
       </c>
@@ -1858,7 +2127,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>207</v>
       </c>
@@ -1868,7 +2137,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>208</v>
       </c>
@@ -1878,7 +2147,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>209</v>
       </c>
@@ -1888,7 +2157,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>210</v>
       </c>
@@ -1898,7 +2167,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>211</v>
       </c>
@@ -1908,7 +2177,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>212</v>
       </c>
@@ -1918,7 +2187,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>213</v>
       </c>
@@ -1934,20 +2203,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +2226,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -1965,7 +2234,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -1973,7 +2242,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -1987,24 +2256,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2128,17 +2397,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2173,28 +2442,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -2399,20 +2668,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2496,17 +2765,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2548,17 +2817,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2613,19 +2882,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2727,17 +2996,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>

--- a/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
+++ b/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
@@ -899,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -951,7 +951,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>

--- a/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
+++ b/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/248d071b55cd37e9/Documents/GitHub/NitaraAndroidSPApplication-/AndroidAutomation_ServiceProvider/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_63D50D6EEF924D9E8E96BEE24599D29C62E8EC90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3515D3B5-35D1-4478-9886-70C75FC229DC}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_63D50D6EEF924D9E8E96BEE24599D29C62E8EC90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B56E60A-BB4A-4371-B323-918480CA17D1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="PD" sheetId="3" r:id="rId10"/>
     <sheet name="RegisterMilkingorDryCattle" sheetId="12" r:id="rId11"/>
     <sheet name="ForgotPin" sheetId="13" r:id="rId12"/>
+    <sheet name="LoginwithOTP" sheetId="14" r:id="rId13"/>
+    <sheet name="RegisterBull" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="252">
   <si>
     <t>testcase</t>
   </si>
@@ -707,9 +709,6 @@
     <t>RegisterCattle_BullSameEarTag</t>
   </si>
   <si>
-    <t>MilkingCt1</t>
-  </si>
-  <si>
     <t>MAY</t>
   </si>
   <si>
@@ -759,6 +758,42 @@
   </si>
   <si>
     <t>MARCH</t>
+  </si>
+  <si>
+    <t>LoginwithOTP_LessThan4Digits</t>
+  </si>
+  <si>
+    <t>Please enter OTP to continue.</t>
+  </si>
+  <si>
+    <t>LoginwithOTP_IncorrectOTP</t>
+  </si>
+  <si>
+    <t>The OTP you entered is incorrect. Please check &amp; re-enter the correct OTP.</t>
+  </si>
+  <si>
+    <t>LoginWithOTP_ResendOTPMoreThanThreeTimesViaSMS</t>
+  </si>
+  <si>
+    <t>Maximum resend OTP attempts exhausted. Please wait for 5 minutes and Generate New OTP.</t>
+  </si>
+  <si>
+    <t>LoginWithOTP_ResendOTPMoreThanThreeTimesViaCall</t>
+  </si>
+  <si>
+    <t>Pashu Aadhar should only be Numeric.Please check and re-enter Pashu Aadhar.</t>
+  </si>
+  <si>
+    <t>The field Year of Birth cannot be empty</t>
+  </si>
+  <si>
+    <t>Weight cannot be less than 15 kg. Please check weight and re-enter weight again.</t>
+  </si>
+  <si>
+    <t>Weight cannot be more than 2000 kg. Please check weight and re-enter weight again.</t>
+  </si>
+  <si>
+    <t>Animal cannot be under 6 months old to be a Bull. Please register animal as Calf.</t>
   </si>
 </sst>
 </file>
@@ -1155,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,14 +1809,11 @@
       <c r="A13" t="s">
         <v>222</v>
       </c>
-      <c r="B13" t="s">
-        <v>223</v>
-      </c>
       <c r="D13">
         <v>2019</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1798,16 +1830,16 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
         <v>225</v>
-      </c>
-      <c r="C14" t="s">
-        <v>226</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1824,7 +1856,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15">
         <v>15421542</v>
@@ -1833,7 +1865,7 @@
         <v>2021</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1847,7 +1879,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16">
         <v>15421542154215</v>
@@ -1856,7 +1888,7 @@
         <v>2019</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1870,13 +1902,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17">
         <v>2018</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1890,10 +1922,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
         <v>234</v>
-      </c>
-      <c r="E18" t="s">
-        <v>235</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -1907,7 +1939,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19">
         <v>2020</v>
@@ -1930,13 +1962,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20">
         <v>2020</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -1953,13 +1985,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21">
         <v>2022</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -2248,6 +2280,172 @@
       </c>
       <c r="B4" t="s">
         <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3571EF7D-593B-4D05-93ED-7ADC46769063}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C3F085-B1A4-480D-BDD5-61F5B964F9E4}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
+++ b/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/248d071b55cd37e9/Documents/GitHub/NitaraAndroidSPApplication-/AndroidAutomation_ServiceProvider/src/main/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_63D50D6EEF924D9E8E96BEE24599D29C62E8EC90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B56E60A-BB4A-4371-B323-918480CA17D1}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14430" windowHeight="6615" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -27,6 +21,7 @@
     <sheet name="ForgotPin" sheetId="13" r:id="rId12"/>
     <sheet name="LoginwithOTP" sheetId="14" r:id="rId13"/>
     <sheet name="RegisterBull" sheetId="15" r:id="rId14"/>
+    <sheet name="SearchCattle" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="259">
   <si>
     <t>testcase</t>
   </si>
@@ -794,12 +789,33 @@
   </si>
   <si>
     <t>Animal cannot be under 6 months old to be a Bull. Please register animal as Calf.</t>
+  </si>
+  <si>
+    <t>Farm not found</t>
+  </si>
+  <si>
+    <t>Farm not found within 10 Km area from your current location</t>
+  </si>
+  <si>
+    <t>SearchCattle_farmNotFound</t>
+  </si>
+  <si>
+    <t>SearchCattle_farmNotInCurrentArea</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>7718877725</t>
+  </si>
+  <si>
+    <t>1234567891</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -864,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -874,6 +890,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,7 +951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -986,7 +1003,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1180,37 +1197,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
-    <col min="18" max="19" width="16.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="19" width="16.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -1877,7 +1894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -1900,7 +1917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -1920,7 +1937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -1937,7 +1954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>235</v>
       </c>
@@ -1960,7 +1977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -1983,7 +2000,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>238</v>
       </c>
@@ -2011,17 +2028,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2080,19 +2097,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2235,17 +2252,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,17 +2305,17 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3571EF7D-593B-4D05-93ED-7ADC46769063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2347,17 +2364,17 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C3F085-B1A4-480D-BDD5-61F5B964F9E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,25 +2470,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2595,17 +2666,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2640,28 +2711,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -2866,20 +2937,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2963,17 +3034,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3015,17 +3086,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3080,19 +3151,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3194,17 +3265,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>

--- a/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
+++ b/AndroidAutomation_ServiceProvider/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14430" windowHeight="6615" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14430" windowHeight="6615" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="271">
   <si>
     <t>testcase</t>
   </si>
@@ -809,7 +809,43 @@
     <t>7718877725</t>
   </si>
   <si>
-    <t>1234567891</t>
+    <t>1120211909</t>
+  </si>
+  <si>
+    <t>PD_NoInseminationData</t>
+  </si>
+  <si>
+    <t>PD data cannot be entered as no previous insemination found in current lactation.</t>
+  </si>
+  <si>
+    <t>PD_PDdateWithin21DaysOfInseminationdate</t>
+  </si>
+  <si>
+    <t>21 Oct 2021</t>
+  </si>
+  <si>
+    <t>PD Date cannot be within 21 days of last Insemination Date.</t>
+  </si>
+  <si>
+    <t>PD_PDdateWithin21DaysOfPDdate</t>
+  </si>
+  <si>
+    <t>SecondpregnancyTestDate</t>
+  </si>
+  <si>
+    <t>10 Nov 2021</t>
+  </si>
+  <si>
+    <t>22 Oct 2021</t>
+  </si>
+  <si>
+    <t>Only 1 PD Activity can be added per cattle in offline mode.</t>
+  </si>
+  <si>
+    <t>PD_recording2PDActivitiesInOfflineMode</t>
+  </si>
+  <si>
+    <t>PD Date cannot be entered within 21 days after last recorded PD entry</t>
   </si>
 </sst>
 </file>
@@ -880,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -891,6 +927,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2029,20 +2066,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2052,8 +2091,14 @@
       <c r="C1" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>148</v>
       </c>
@@ -2063,8 +2108,10 @@
       <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>160</v>
       </c>
@@ -2074,21 +2121,83 @@
       <c r="C3" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2474,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,6 +2592,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
